--- a/FLEX.NET/Resources/FLEXリング報.xlsx
+++ b/FLEX.NET/Resources/FLEXリング報.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12330"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="FLEX掘進リング報" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="サイクル時間">FLEX掘進リング報!$W$9</definedName>
     <definedName name="データ名称">FLEX掘進リング報!$B$13</definedName>
-    <definedName name="リング№">FLEX掘進リング報!$Q$3</definedName>
+    <definedName name="リング№">FLEX掘進リング報!$Q$2</definedName>
     <definedName name="掘進ストローク">FLEX掘進リング報!$W$2</definedName>
     <definedName name="掘進開始時刻">FLEX掘進リング報!$C$4</definedName>
     <definedName name="掘進完了時刻">FLEX掘進リング報!$C$5</definedName>
@@ -469,63 +469,6 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
       </rPr>
-      <t>平均値
-（リング内）</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>ヘイキンチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-      </rPr>
-      <t>最大値
-（リング内）</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>サイダイチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-      </rPr>
-      <t>最小値
-(リング内）</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>サイショウチ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-      </rPr>
       <t>時刻</t>
     </r>
     <rPh sb="0" eb="2">
@@ -593,6 +536,93 @@
     <t>‰</t>
     <phoneticPr fontId="0"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">平均値
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（リング内）</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">最大値
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（リング内）</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">最小値
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(リング内）</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +636,7 @@
     <numFmt numFmtId="180" formatCode="hh:ss"/>
     <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,8 +755,15 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <b/>
-      <sz val="28"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -734,7 +771,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="36"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
@@ -1348,197 +1385,197 @@
     <xf numFmtId="181" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1842,327 +1879,329 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <outlinePr showOutlineSymbols="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="31" customWidth="1"/>
-    <col min="3" max="25" width="11.5" style="31" customWidth="1"/>
-    <col min="26" max="26" width="9" style="31" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="30" customWidth="1"/>
+    <col min="3" max="25" width="11.5" style="30" customWidth="1"/>
+    <col min="26" max="26" width="9" style="30" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="32"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:25" customFormat="1" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="33"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="77" t="s">
+      <c r="F2" s="32"/>
+      <c r="P2" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="92">
+        <v>222</v>
+      </c>
+      <c r="R2" s="93"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="89">
+      <c r="V2" s="76"/>
+      <c r="W2" s="62">
         <v>38</v>
       </c>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="35" t="s">
+      <c r="X2" s="63"/>
+      <c r="Y2" s="34" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="30" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="32"/>
+      <c r="U3" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="74"/>
+      <c r="W3" s="64">
+        <v>20.427900000000001</v>
+      </c>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="32"/>
+      <c r="U4" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="74"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="32"/>
+      <c r="U5" s="73" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="74"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="32"/>
+      <c r="U6" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="74"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="32"/>
+      <c r="U7" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="74"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="33"/>
+      <c r="U8" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="74"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="37"/>
+      <c r="U9" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="72"/>
+      <c r="W9" s="60"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" customFormat="1" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="79" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="79">
-        <v>222</v>
-      </c>
-      <c r="R3" s="80"/>
-      <c r="S3" s="33"/>
-      <c r="U3" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="76"/>
-      <c r="W3" s="83">
-        <v>20.427900000000001</v>
-      </c>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="33"/>
-      <c r="U4" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="76"/>
-      <c r="W4" s="83"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="33"/>
-      <c r="U5" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="76"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="93" t="s">
+      <c r="X10" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="89" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="33"/>
-      <c r="U6" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="76"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="33"/>
-      <c r="U7" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="V7" s="76"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="34"/>
-      <c r="U8" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="V8" s="76"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="T9" s="38"/>
-      <c r="U9" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="73"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="44" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" customFormat="1" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="62" t="s">
+    <row r="11" spans="1:25" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="80"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="82"/>
+    </row>
+    <row r="12" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="X10" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y10" s="64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="63"/>
-      <c r="X11" s="63"/>
-      <c r="Y11" s="65"/>
-    </row>
-    <row r="12" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="52"/>
-    </row>
-    <row r="13" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="53">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="51"/>
+    </row>
+    <row r="13" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="52">
         <v>1</v>
       </c>
       <c r="B13" s="29"/>
@@ -2190,8 +2229,8 @@
       <c r="X13" s="24"/>
       <c r="Y13" s="23"/>
     </row>
-    <row r="14" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="53">
+    <row r="14" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="52">
         <v>2</v>
       </c>
       <c r="B14" s="29"/>
@@ -2219,8 +2258,8 @@
       <c r="X14" s="24"/>
       <c r="Y14" s="23"/>
     </row>
-    <row r="15" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="53">
+    <row r="15" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="52">
         <v>3</v>
       </c>
       <c r="B15" s="29"/>
@@ -2248,8 +2287,8 @@
       <c r="X15" s="24"/>
       <c r="Y15" s="23"/>
     </row>
-    <row r="16" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53">
+    <row r="16" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="52">
         <v>4</v>
       </c>
       <c r="B16" s="29"/>
@@ -2277,8 +2316,8 @@
       <c r="X16" s="24"/>
       <c r="Y16" s="23"/>
     </row>
-    <row r="17" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53">
+    <row r="17" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="52">
         <v>5</v>
       </c>
       <c r="B17" s="29"/>
@@ -2306,8 +2345,8 @@
       <c r="X17" s="24"/>
       <c r="Y17" s="23"/>
     </row>
-    <row r="18" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53">
+    <row r="18" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="52">
         <v>6</v>
       </c>
       <c r="B18" s="29"/>
@@ -2335,8 +2374,8 @@
       <c r="X18" s="24"/>
       <c r="Y18" s="23"/>
     </row>
-    <row r="19" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53">
+    <row r="19" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="52">
         <v>7</v>
       </c>
       <c r="B19" s="29"/>
@@ -2364,8 +2403,8 @@
       <c r="X19" s="24"/>
       <c r="Y19" s="23"/>
     </row>
-    <row r="20" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53">
+    <row r="20" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="52">
         <v>8</v>
       </c>
       <c r="B20" s="29"/>
@@ -2393,8 +2432,8 @@
       <c r="X20" s="24"/>
       <c r="Y20" s="23"/>
     </row>
-    <row r="21" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="53">
+    <row r="21" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="52">
         <v>9</v>
       </c>
       <c r="B21" s="29"/>
@@ -2422,8 +2461,8 @@
       <c r="X21" s="24"/>
       <c r="Y21" s="23"/>
     </row>
-    <row r="22" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53">
+    <row r="22" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="52">
         <v>10</v>
       </c>
       <c r="B22" s="29"/>
@@ -2452,7 +2491,7 @@
       <c r="Y22" s="23"/>
     </row>
     <row r="23" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="54">
+      <c r="A23" s="53">
         <v>11</v>
       </c>
       <c r="B23" s="22"/>
@@ -2481,7 +2520,7 @@
       <c r="Y23" s="16"/>
     </row>
     <row r="24" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="54">
+      <c r="A24" s="53">
         <v>12</v>
       </c>
       <c r="B24" s="22"/>
@@ -2509,8 +2548,8 @@
       <c r="X24" s="17"/>
       <c r="Y24" s="16"/>
     </row>
-    <row r="25" spans="1:25" s="57" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="53">
+    <row r="25" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="52">
         <v>13</v>
       </c>
       <c r="B25" s="15"/>
@@ -2539,7 +2578,7 @@
       <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="54">
+      <c r="A26" s="53">
         <v>14</v>
       </c>
       <c r="B26" s="22"/>
@@ -2568,7 +2607,7 @@
       <c r="Y26" s="16"/>
     </row>
     <row r="27" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="54">
+      <c r="A27" s="53">
         <v>15</v>
       </c>
       <c r="B27" s="22"/>
@@ -2597,7 +2636,7 @@
       <c r="Y27" s="16"/>
     </row>
     <row r="28" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="54">
+      <c r="A28" s="53">
         <v>16</v>
       </c>
       <c r="B28" s="22"/>
@@ -2626,7 +2665,7 @@
       <c r="Y28" s="16"/>
     </row>
     <row r="29" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="54">
+      <c r="A29" s="53">
         <v>17</v>
       </c>
       <c r="B29" s="22"/>
@@ -2655,7 +2694,7 @@
       <c r="Y29" s="16"/>
     </row>
     <row r="30" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="54">
+      <c r="A30" s="53">
         <v>18</v>
       </c>
       <c r="B30" s="22"/>
@@ -2684,7 +2723,7 @@
       <c r="Y30" s="16"/>
     </row>
     <row r="31" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="54">
+      <c r="A31" s="53">
         <v>19</v>
       </c>
       <c r="B31" s="22"/>
@@ -2713,7 +2752,7 @@
       <c r="Y31" s="16"/>
     </row>
     <row r="32" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54">
+      <c r="A32" s="53">
         <v>20</v>
       </c>
       <c r="B32" s="22"/>
@@ -2742,7 +2781,7 @@
       <c r="Y32" s="16"/>
     </row>
     <row r="33" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54">
+      <c r="A33" s="53">
         <v>21</v>
       </c>
       <c r="B33" s="22"/>
@@ -2771,7 +2810,7 @@
       <c r="Y33" s="16"/>
     </row>
     <row r="34" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="54">
+      <c r="A34" s="53">
         <v>22</v>
       </c>
       <c r="B34" s="22"/>
@@ -2800,7 +2839,7 @@
       <c r="Y34" s="16"/>
     </row>
     <row r="35" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="54">
+      <c r="A35" s="53">
         <v>23</v>
       </c>
       <c r="B35" s="22"/>
@@ -2829,7 +2868,7 @@
       <c r="Y35" s="16"/>
     </row>
     <row r="36" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="54">
+      <c r="A36" s="53">
         <v>24</v>
       </c>
       <c r="B36" s="22"/>
@@ -2858,7 +2897,7 @@
       <c r="Y36" s="16"/>
     </row>
     <row r="37" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="54">
+      <c r="A37" s="53">
         <v>25</v>
       </c>
       <c r="B37" s="22"/>
@@ -2887,7 +2926,7 @@
       <c r="Y37" s="16"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="54">
+      <c r="A38" s="53">
         <v>26</v>
       </c>
       <c r="B38" s="22"/>
@@ -2916,7 +2955,7 @@
       <c r="Y38" s="16"/>
     </row>
     <row r="39" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="54">
+      <c r="A39" s="53">
         <v>27</v>
       </c>
       <c r="B39" s="22"/>
@@ -2945,7 +2984,7 @@
       <c r="Y39" s="16"/>
     </row>
     <row r="40" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="54">
+      <c r="A40" s="53">
         <v>28</v>
       </c>
       <c r="B40" s="22"/>
@@ -2974,7 +3013,7 @@
       <c r="Y40" s="16"/>
     </row>
     <row r="41" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="54">
+      <c r="A41" s="53">
         <v>29</v>
       </c>
       <c r="B41" s="22"/>
@@ -3003,7 +3042,7 @@
       <c r="Y41" s="16"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55">
+      <c r="A42" s="54">
         <v>30</v>
       </c>
       <c r="B42" s="8"/>
@@ -3033,6 +3072,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="D10:V10"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="Q2:R3"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="W3:X3"/>
@@ -3041,28 +3102,6 @@
     <mergeCell ref="W6:X6"/>
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="W8:X8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="D10:V10"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/FLEX.NET/Resources/FLEXリング報.xlsx
+++ b/FLEX.NET/Resources/FLEXリング報.xlsx
@@ -1294,91 +1294,31 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1475,6 +1415,81 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1502,80 +1517,35 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1885,1193 +1855,1207 @@
   <dimension ref="A1:Y42"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="30" customWidth="1"/>
-    <col min="3" max="25" width="11.5" style="30" customWidth="1"/>
-    <col min="26" max="26" width="9" style="30" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="10" customWidth="1"/>
+    <col min="3" max="25" width="11.5" style="10" customWidth="1"/>
+    <col min="26" max="26" width="9" style="10" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J1" s="31"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:25" customFormat="1" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="F2" s="32"/>
-      <c r="P2" s="90" t="s">
+      <c r="F2" s="12"/>
+      <c r="P2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="92">
+      <c r="Q2" s="63">
         <v>222</v>
       </c>
-      <c r="R2" s="93"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="75" t="s">
+      <c r="R2" s="64"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="62">
+      <c r="V2" s="60"/>
+      <c r="W2" s="67">
         <v>38</v>
       </c>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="34" t="s">
+      <c r="X2" s="68"/>
+      <c r="Y2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="93"/>
-      <c r="R3" s="93"/>
-      <c r="S3" s="32"/>
-      <c r="U3" s="73" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="12"/>
+      <c r="U3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="74"/>
-      <c r="W3" s="64">
+      <c r="V3" s="58"/>
+      <c r="W3" s="69">
         <v>20.427900000000001</v>
       </c>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="39" t="s">
+      <c r="X3" s="70"/>
+      <c r="Y3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="32"/>
-      <c r="U4" s="73" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="12"/>
+      <c r="U4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="74"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="39" t="s">
+      <c r="V4" s="58"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="32"/>
-      <c r="U5" s="73" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="12"/>
+      <c r="U5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="74"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="59" t="s">
+      <c r="V5" s="58"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="32"/>
-      <c r="U6" s="73" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="12"/>
+      <c r="U6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="74"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="39" t="s">
+      <c r="V6" s="58"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="32"/>
-      <c r="U7" s="73" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="12"/>
+      <c r="U7" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="74"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="68"/>
-      <c r="Y7" s="39" t="s">
+      <c r="V7" s="58"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="33"/>
-      <c r="U8" s="73" t="s">
+      <c r="B8" s="13"/>
+      <c r="U8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="74"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="68"/>
-      <c r="Y8" s="39" t="s">
+      <c r="V8" s="58"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:25" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="T9" s="37"/>
-      <c r="U9" s="71" t="s">
+      <c r="T9" s="17"/>
+      <c r="U9" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="V9" s="72"/>
-      <c r="W9" s="60"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="43" t="s">
+      <c r="V9" s="56"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:25" customFormat="1" ht="42" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="88" t="s">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="X10" s="88" t="s">
+      <c r="X10" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="89" t="s">
+      <c r="Y10" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:25" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="85"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="82"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="47"/>
     </row>
     <row r="12" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="51"/>
-    </row>
-    <row r="13" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="52">
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="31"/>
+    </row>
+    <row r="13" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="32">
         <v>1</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="23"/>
-    </row>
-    <row r="14" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="52">
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="75"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="78"/>
+    </row>
+    <row r="14" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="32">
         <v>2</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="Y14" s="23"/>
-    </row>
-    <row r="15" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="52">
+      <c r="B14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="78"/>
+    </row>
+    <row r="15" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="32">
         <v>3</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="23"/>
-    </row>
-    <row r="16" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="52">
+      <c r="B15" s="9"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="75"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="78"/>
+    </row>
+    <row r="16" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="32">
         <v>4</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="23"/>
-    </row>
-    <row r="17" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="52">
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="78"/>
+    </row>
+    <row r="17" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="32">
         <v>5</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="23"/>
-    </row>
-    <row r="18" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="52">
+      <c r="B17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="78"/>
+    </row>
+    <row r="18" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="32">
         <v>6</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="23"/>
-    </row>
-    <row r="19" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="52">
+      <c r="B18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="78"/>
+    </row>
+    <row r="19" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="32">
         <v>7</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="23"/>
-    </row>
-    <row r="20" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="52">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="75"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="77"/>
+      <c r="X19" s="77"/>
+      <c r="Y19" s="78"/>
+    </row>
+    <row r="20" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="32">
         <v>8</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="23"/>
-    </row>
-    <row r="21" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52">
+      <c r="B20" s="9"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="78"/>
+    </row>
+    <row r="21" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="32">
         <v>9</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="23"/>
-    </row>
-    <row r="22" spans="1:25" s="55" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="52">
+      <c r="B21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="78"/>
+    </row>
+    <row r="22" spans="1:25" s="35" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="32">
         <v>10</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="23"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="75"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="78"/>
     </row>
     <row r="23" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53">
+      <c r="A23" s="33">
         <v>11</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="19"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="16"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+      <c r="L23" s="75"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="75"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="75"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="78"/>
     </row>
     <row r="24" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="53">
+      <c r="A24" s="33">
         <v>12</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="16"/>
-    </row>
-    <row r="25" spans="1:25" s="56" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="78"/>
+    </row>
+    <row r="25" spans="1:25" s="36" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="32">
         <v>13</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="9"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="78"/>
     </row>
     <row r="26" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="53">
+      <c r="A26" s="33">
         <v>14</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="16"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="76"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="78"/>
     </row>
     <row r="27" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="53">
+      <c r="A27" s="33">
         <v>15</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="16"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="76"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="78"/>
     </row>
     <row r="28" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="53">
+      <c r="A28" s="33">
         <v>16</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="16"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="75"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="75"/>
+      <c r="U28" s="75"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="78"/>
     </row>
     <row r="29" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="53">
+      <c r="A29" s="33">
         <v>17</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="16"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="75"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="75"/>
+      <c r="U29" s="75"/>
+      <c r="V29" s="76"/>
+      <c r="W29" s="77"/>
+      <c r="X29" s="77"/>
+      <c r="Y29" s="78"/>
     </row>
     <row r="30" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="53">
+      <c r="A30" s="33">
         <v>18</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="16"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="75"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="75"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="75"/>
+      <c r="U30" s="75"/>
+      <c r="V30" s="76"/>
+      <c r="W30" s="77"/>
+      <c r="X30" s="77"/>
+      <c r="Y30" s="78"/>
     </row>
     <row r="31" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="53">
+      <c r="A31" s="33">
         <v>19</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="16"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="75"/>
+      <c r="Q31" s="75"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="76"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="78"/>
     </row>
     <row r="32" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="53">
+      <c r="A32" s="33">
         <v>20</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-      <c r="S32" s="19"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="16"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="78"/>
     </row>
     <row r="33" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="53">
+      <c r="A33" s="33">
         <v>21</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="16"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="75"/>
+      <c r="P33" s="75"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="75"/>
+      <c r="U33" s="75"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="77"/>
+      <c r="X33" s="77"/>
+      <c r="Y33" s="78"/>
     </row>
     <row r="34" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53">
+      <c r="A34" s="33">
         <v>22</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="16"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="78"/>
     </row>
     <row r="35" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="53">
+      <c r="A35" s="33">
         <v>23</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="16"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="76"/>
+      <c r="W35" s="77"/>
+      <c r="X35" s="77"/>
+      <c r="Y35" s="78"/>
     </row>
     <row r="36" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="53">
+      <c r="A36" s="33">
         <v>24</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="16"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="77"/>
+      <c r="X36" s="77"/>
+      <c r="Y36" s="78"/>
     </row>
     <row r="37" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="53">
+      <c r="A37" s="33">
         <v>25</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="19"/>
-      <c r="U37" s="19"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="16"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="75"/>
+      <c r="U37" s="75"/>
+      <c r="V37" s="76"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="77"/>
+      <c r="Y37" s="78"/>
     </row>
     <row r="38" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="53">
+      <c r="A38" s="33">
         <v>26</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="16"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="76"/>
+      <c r="W38" s="77"/>
+      <c r="X38" s="77"/>
+      <c r="Y38" s="78"/>
     </row>
     <row r="39" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="53">
+      <c r="A39" s="33">
         <v>27</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="19"/>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="16"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="75"/>
+      <c r="U39" s="75"/>
+      <c r="V39" s="76"/>
+      <c r="W39" s="77"/>
+      <c r="X39" s="77"/>
+      <c r="Y39" s="78"/>
     </row>
     <row r="40" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="53">
+      <c r="A40" s="33">
         <v>28</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="16"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="76"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="78"/>
     </row>
     <row r="41" spans="1:25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="53">
+      <c r="A41" s="33">
         <v>29</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="16"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="78"/>
     </row>
     <row r="42" spans="1:25" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="54">
+      <c r="A42" s="34">
         <v>30</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
+      <c r="Q42" s="80"/>
+      <c r="R42" s="80"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="82"/>
+      <c r="X42" s="82"/>
+      <c r="Y42" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="Q2:R3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="W10:W11"/>
@@ -3088,20 +3072,6 @@
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
